--- a/2018年工作学习计划计划.xlsx
+++ b/2018年工作学习计划计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8F0BF952-A37E-4617-92E5-74B526909A47}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE250FC0-3CFD-46F7-8B07-31D0E3802172}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>总体说明:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t xml:space="preserve">               区块链学习2个F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +503,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,7 +569,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -577,7 +583,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>

--- a/2018年工作学习计划计划.xlsx
+++ b/2018年工作学习计划计划.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE250FC0-3CFD-46F7-8B07-31D0E3802172}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>总体说明:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,13 +74,33 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,50 +518,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -562,7 +581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -572,11 +591,17 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -586,15 +611,23 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -602,11 +635,13 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -614,7 +649,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -624,7 +659,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>16</v>
@@ -648,11 +683,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -660,11 +697,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -672,11 +711,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -684,7 +725,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -696,7 +737,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -706,7 +747,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>23</v>
@@ -730,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -742,7 +783,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -754,7 +795,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -766,7 +807,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -778,7 +819,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -788,7 +829,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>30</v>
@@ -802,7 +843,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -814,7 +855,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -826,7 +867,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -838,7 +879,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>

--- a/2018年工作学习计划计划.xlsx
+++ b/2018年工作学习计划计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{469E81DE-0A4E-4585-98E2-93A8BED9E2BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="21570" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4月" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>总体说明:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +91,10 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,50 +523,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.9140625" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
@@ -581,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -601,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -621,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -635,7 +640,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -649,7 +654,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -659,7 +664,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>16</v>
@@ -683,35 +688,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -725,7 +738,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -737,7 +750,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -747,7 +760,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>23</v>
@@ -771,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -783,7 +796,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
@@ -795,7 +808,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -807,7 +820,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -819,7 +832,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -829,7 +842,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>30</v>
@@ -843,7 +856,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
@@ -855,7 +868,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -867,7 +880,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -879,7 +892,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
